--- a/biology/Histoire de la zoologie et de la botanique/Clodoveo_Carrión/Clodoveo_Carrión.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Clodoveo_Carrión/Clodoveo_Carrión.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Clodoveo_Carri%C3%B3n</t>
+          <t>Clodoveo_Carrión</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clodoveo Carrión Mora (1883–1957) est un paléontologue et naturaliste équatorien, considéré comme l'un des plus prolifiques et érudits de son pays au XXe siècle.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Clodoveo_Carri%C3%B3n</t>
+          <t>Clodoveo_Carrión</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Carrión, C., 1930. El chirimoyo - anona chrimolia -. Revista del Colegio Bernardo Valdivieso (Loja) IV(5), 313-316.
 Carrión, C., 1934. Contribución a la Paleontología. Revista Universitaria (Loja) II(2-3), 150-161.
